--- a/normal_binomial_compared.xlsx
+++ b/normal_binomial_compared.xlsx
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1153,11 +1153,11 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <f>ROUNDUP(COMBIN(10,B4)*(0.5^B4)*(0.5^C4),4)</f>
+        <f>ROUND(COMBIN(10,B4)*(0.5^B4)*(0.5^C4),4)</f>
         <v>0.001</v>
       </c>
       <c r="E4">
-        <f>ROUNDDOWN(_xlfn.NORM.DIST(B4,5,SQRT(2.5),FALSE),4)</f>
+        <f>ROUND(_xlfn.NORM.DIST(B4,5,SQRT(2.5),FALSE),4)</f>
         <v>0.0017</v>
       </c>
     </row>
@@ -1175,12 +1175,12 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D24" si="1">ROUNDUP(COMBIN(10,B5)*(0.5^B5)*(0.5^C5),4)</f>
+        <f t="shared" ref="D5:D24" si="1">ROUND(COMBIN(10,B5)*(0.5^B5)*(0.5^C5),4)</f>
         <v>0.0098</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E24" si="2">ROUNDDOWN(_xlfn.NORM.DIST(B5,5,SQRT(2.5),FALSE),4)</f>
-        <v>0.0102</v>
+        <f t="shared" ref="E5:E24" si="2">ROUND(_xlfn.NORM.DIST(B5,5,SQRT(2.5),FALSE),4)</f>
+        <v>0.0103</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>0.044</v>
+        <v>0.0439</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>0.1133</v>
+        <v>0.1134</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>0.2065</v>
+        <v>0.2066</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>0.2065</v>
+        <v>0.2066</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>0.1133</v>
+        <v>0.1134</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>0.044</v>
+        <v>0.0439</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>0.0102</v>
+        <v>0.0103</v>
       </c>
     </row>
     <row r="14" spans="1:5">
